--- a/multi_bee_simulation_results.xlsx
+++ b/multi_bee_simulation_results.xlsx
@@ -469,16 +469,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0 -&gt; 2 -&gt; 1 -&gt; 4 -&gt; 5 -&gt; 3 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, 12), (-4, -4), (4, 12), (4, -4), (0, 20), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>130.5506440623841</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="3">
@@ -490,16 +490,16 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 1 -&gt; 2 -&gt; 0</t>
+          <t>0 -&gt; 4 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 3 -&gt; 5 -&gt; 2 -&gt; 3 -&gt; 1 -&gt; 0</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (0, 20), (4, 12), (4, -4), (-4, -4), (-4, 12), (0, -12)]</t>
+          <t>[(0, -12), (4, 12), (6, 18), (4, 12), (4, -4), (6, 18), (4, 12), (4, -4), (6, 18), (4, -4), (-4, 12), (6, 18), (-4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>106.5506440623841</v>
+        <v>204.2376936522039</v>
       </c>
     </row>
     <row r="4">
@@ -511,16 +511,16 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 3 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 1 -&gt; 0</t>
+          <t>0 -&gt; 5 -&gt; 3 -&gt; 4 -&gt; 2 -&gt; 1 -&gt; 0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, 12), (0, 20), (4, 12), (4, -4), (0, 20), (-4, 12), (0, 20), (4, 12), (4, -4), (-4, -4), (0, -12)]</t>
+          <t>[(0, -12), (4, -4), (6, 18), (4, 12), (-4, 12), (-4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>142.3277317023807</v>
+        <v>70.3038211747096</v>
       </c>
     </row>
     <row r="5">
@@ -532,16 +532,16 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 1 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (-4, -4), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>103.5541752799933</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="6">
@@ -553,16 +553,16 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 4 -&gt; 5 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 1 -&gt; 0</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (4, 12), (4, -4), (-4, 12), (6, 18), (4, 12), (-4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>67.77708763999664</v>
+        <v>103.038868781216</v>
       </c>
     </row>
     <row r="7">
@@ -574,16 +574,16 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 1 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, 12), (0, 20), (4, 12), (4, -4), (-4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>75.16386585119035</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="8">
@@ -595,16 +595,16 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 2 -&gt; 3 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 1 -&gt; 0</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, 12), (6, 18), (-4, 12), (6, 18), (4, 12), (4, -4), (-4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>67.77708763999664</v>
+        <v>98.5855887206006</v>
       </c>
     </row>
     <row r="9">
@@ -616,16 +616,16 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 4 -&gt; 5 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 2 -&gt; 0</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (6, 18), (4, 12), (4, -4), (4, 12), (4, -4), (6, 18), (4, 12), (4, -4), (-4, 12), (0, -12)]</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>67.77708763999664</v>
+        <v>174.0697904734275</v>
       </c>
     </row>
     <row r="10">
@@ -637,16 +637,16 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 5 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 0</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, -4), (-4, -4), (-4, 12), (6, 18), (4, 12), (0, -12)]</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>67.77708763999664</v>
+        <v>125.0144069652845</v>
       </c>
     </row>
     <row r="11">
@@ -663,11 +663,11 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="12">
@@ -684,11 +684,11 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="13">
@@ -705,11 +705,11 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="14">
@@ -721,16 +721,16 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 5 -&gt; 4 -&gt; 5 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 0</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (4, -4), (4, 12), (4, -4), (-4, -4), (-4, 12), (6, 18), (0, -12)]</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>67.77708763999664</v>
+        <v>141.0888366012448</v>
       </c>
     </row>
     <row r="15">
@@ -742,16 +742,16 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 1 -&gt; 0</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, 12), (6, 18), (4, 12), (4, -4), (-4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>67.77708763999664</v>
+        <v>75.2617811412194</v>
       </c>
     </row>
     <row r="16">
@@ -763,16 +763,16 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 3 -&gt; 4 -&gt; 2 -&gt; 3 -&gt; 2 -&gt; 1 -&gt; 2 -&gt; 5 -&gt; 0</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (6, 18), (4, 12), (-4, 12), (6, 18), (-4, 12), (-4, -4), (-4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>67.77708763999664</v>
+        <v>127.0752957112721</v>
       </c>
     </row>
     <row r="17">
@@ -784,16 +784,16 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 4 -&gt; 5 -&gt; 2 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (0, 20), (4, 12), (4, -4), (4, 12), (4, -4), (-4, 12), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>132.4391878823824</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="18">
@@ -805,16 +805,16 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>67.77708763999664</v>
+        <v>119.7500058600513</v>
       </c>
     </row>
     <row r="19">
@@ -831,11 +831,11 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="20">
@@ -852,11 +852,11 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="21">
@@ -868,16 +868,16 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 4 -&gt; 5 -&gt; 3 -&gt; 0</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (4, 12), (4, -4), (6, 18), (0, -12)]</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>67.77708763999664</v>
+        <v>101.6291110259304</v>
       </c>
     </row>
     <row r="22">
@@ -889,16 +889,16 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 4 -&gt; 5 -&gt; 4 -&gt; 5 -&gt; 2 -&gt; 3 -&gt; 0</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (4, 12), (4, -4), (4, 12), (4, -4), (-4, 12), (6, 18), (0, -12)]</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>67.77708763999664</v>
+        <v>134.9773804212431</v>
       </c>
     </row>
     <row r="23">
@@ -915,11 +915,11 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="24">
@@ -931,16 +931,16 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 4 -&gt; 5 -&gt; 2 -&gt; 3 -&gt; 0</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (4, 12), (4, -4), (-4, 12), (6, 18), (0, -12)]</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>67.77708763999664</v>
+        <v>109.0888366012448</v>
       </c>
     </row>
     <row r="25">
@@ -952,16 +952,16 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 4 -&gt; 5 -&gt; 3 -&gt; 0</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (4, 12), (4, -4), (6, 18), (0, -12)]</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>67.77708763999664</v>
+        <v>101.6291110259304</v>
       </c>
     </row>
     <row r="26">
@@ -973,16 +973,16 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>67.77708763999664</v>
+        <v>99.87500293002567</v>
       </c>
     </row>
     <row r="27">
@@ -994,16 +994,16 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 1 -&gt; 0</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, 12), (6, 18), (4, 12), (4, -4), (-4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>67.77708763999664</v>
+        <v>75.2617811412194</v>
       </c>
     </row>
     <row r="28">
@@ -1015,16 +1015,16 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 1 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 4 -&gt; 5 -&gt; 3 -&gt; 0</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, 12), (0, 20), (4, 12), (4, -4), (-4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (4, 12), (4, -4), (6, 18), (0, -12)]</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>75.16386585119035</v>
+        <v>101.6291110259304</v>
       </c>
     </row>
     <row r="29">
@@ -1036,16 +1036,16 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 3 -&gt; 5 -&gt; 4 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 1 -&gt; 0</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (6, 18), (4, -4), (4, 12), (-4, 12), (6, 18), (4, 12), (-4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>67.77708763999664</v>
+        <v>121.5041139559561</v>
       </c>
     </row>
     <row r="30">
@@ -1062,11 +1062,11 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="31">
@@ -1078,16 +1078,16 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 4 -&gt; 5 -&gt; 3 -&gt; 0</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (4, 12), (4, -4), (6, 18), (0, -12)]</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>67.77708763999664</v>
+        <v>101.6291110259304</v>
       </c>
     </row>
     <row r="32">
@@ -1099,16 +1099,16 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 4 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (4, 12), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>67.77708763999664</v>
+        <v>77.76354675002399</v>
       </c>
     </row>
     <row r="33">
@@ -1120,16 +1120,16 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 5 -&gt; 4 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 4 -&gt; 5 -&gt; 2 -&gt; 0</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (4, -4), (4, 12), (6, 18), (4, 12), (4, -4), (4, 12), (4, -4), (-4, 12), (0, -12)]</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>67.77708763999664</v>
+        <v>135.8129764918639</v>
       </c>
     </row>
     <row r="34">
@@ -1141,16 +1141,16 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 2 -&gt; 3 -&gt; 5 -&gt; 4 -&gt; 5 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 1 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>[(0, -12), (0, 20), (4, 12), (4, -4), (-4, 12), (0, 20), (4, -4), (4, 12), (4, -4), (0, 20), (4, 12), (4, -4), (-4, 12), (0, 20), (4, 12), (-4, 12), (0, 20), (4, 12), (4, -4), (-4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>283.9933631623756</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="35">
@@ -1162,16 +1162,16 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 4 -&gt; 5 -&gt; 3 -&gt; 0</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (4, 12), (4, -4), (6, 18), (0, -12)]</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>119.5541752799933</v>
+        <v>101.6291110259304</v>
       </c>
     </row>
     <row r="36">
@@ -1188,11 +1188,11 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="37">
@@ -1204,16 +1204,16 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 4 -&gt; 5 -&gt; 2 -&gt; 4 -&gt; 5 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 1 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>[(0, -12), (0, 20), (4, 12), (4, -4), (4, 12), (4, -4), (-4, 12), (4, 12), (4, -4), (-4, 12), (0, 20), (4, 12), (-4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>193.4427190999916</v>
+        <v>99.87500293002567</v>
       </c>
     </row>
     <row r="38">
@@ -1230,11 +1230,11 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="39">
@@ -1246,16 +1246,16 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 5 -&gt; 3 -&gt; 4 -&gt; 0</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (4, -4), (6, 18), (4, 12), (0, -12)]</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>67.77708763999664</v>
+        <v>95.57914320590163</v>
       </c>
     </row>
     <row r="40">
@@ -1267,16 +1267,16 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>67.77708763999664</v>
+        <v>91.19881050940687</v>
       </c>
     </row>
     <row r="41">
@@ -1288,16 +1288,16 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0 -&gt; 5 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 2 -&gt; 0</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>[(0, -12), (4, -4), (-4, -4), (-4, 12), (0, 20), (4, 12), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (6, 18), (4, 12), (4, -4), (-4, 12), (0, -12)]</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>75.16386585119035</v>
+        <v>97.65451311871625</v>
       </c>
     </row>
     <row r="42">
@@ -1314,11 +1314,11 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="43">
@@ -1335,11 +1335,11 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="44">
@@ -1351,16 +1351,16 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 4 -&gt; 5 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (4, 12), (4, -4), (-4, -4), (-4, 12), (0, 20), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>107.7770876399966</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="45">
@@ -1372,16 +1372,16 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 5 -&gt; 4 -&gt; 0</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, -4), (4, 12), (0, -12)]</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>67.77708763999664</v>
+        <v>99.02794785525715</v>
       </c>
     </row>
     <row r="46">
@@ -1393,16 +1393,16 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 5 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 5 -&gt; 4 -&gt; 0</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (4, -4), (-4, 12), (0, 20), (4, 12), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, -4), (4, 12), (0, -12)]</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>102.940953491187</v>
+        <v>99.02794785525715</v>
       </c>
     </row>
     <row r="47">
@@ -1414,16 +1414,16 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 2 -&gt; 0</t>
+          <t>0 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 1 -&gt; 2 -&gt; 0</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (0, 20), (4, 12), (4, -4), (-4, 12), (0, -12)]</t>
+          <t>[(0, -12), (6, 18), (4, 12), (4, -4), (-4, -4), (-4, 12), (0, -12)]</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>100.4391878823824</v>
+        <v>101.2497225230863</v>
       </c>
     </row>
     <row r="48">
@@ -1435,16 +1435,16 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 5 -&gt; 4 -&gt; 5 -&gt; 3 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (4, -4), (4, 12), (4, -4), (0, 20), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>131.1638658511903</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="49">
@@ -1456,16 +1456,16 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>67.77708763999664</v>
+        <v>99.87500293002567</v>
       </c>
     </row>
     <row r="50">
@@ -1477,16 +1477,16 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 5 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 1 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (4, -4), (-4, 12), (0, 20), (4, 12), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (-4, -4), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>77.05240967118867</v>
+        <v>116.207186824404</v>
       </c>
     </row>
     <row r="51">
@@ -1498,16 +1498,16 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 4 -&gt; 5 -&gt; 1 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, 12), (0, 20), (4, 12), (4, -4), (4, 12), (4, -4), (-4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>107.1638658511904</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="52">
@@ -1519,16 +1519,16 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0 -&gt; 5 -&gt; 4 -&gt; 5 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 1 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>[(0, -12), (4, -4), (4, 12), (4, -4), (-4, 12), (0, 20), (4, 12), (-4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>103.5541752799933</v>
+        <v>93.86146204005303</v>
       </c>
     </row>
     <row r="53">
@@ -1540,16 +1540,16 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0 -&gt; 5 -&gt; 2 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>[(0, -12), (4, -4), (-4, 12), (-4, -4), (-4, 12), (0, 20), (4, 12), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>101.0524096711887</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="54">
@@ -1561,16 +1561,16 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 5 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 0</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (4, -4), (-4, 12), (6, 18), (4, 12), (0, -12)]</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>67.77708763999664</v>
+        <v>77.15032496121771</v>
       </c>
     </row>
     <row r="55">
@@ -1582,16 +1582,16 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 5 -&gt; 4 -&gt; 3 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 5 -&gt; 4 -&gt; 5 -&gt; 2 -&gt; 3 -&gt; 0</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (4, -4), (4, 12), (0, 20), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (4, -4), (4, 12), (4, -4), (-4, 12), (6, 18), (0, -12)]</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>99.77708763999664</v>
+        <v>134.9773804212431</v>
       </c>
     </row>
     <row r="56">
@@ -1603,16 +1603,16 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 4 -&gt; 5 -&gt; 4 -&gt; 5 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 4 -&gt; 5 -&gt; 3 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (4, 12), (4, -4), (4, 12), (4, -4), (4, 12), (-4, -4), (-4, 12), (4, 12), (4, -4), (0, 20), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>211.1638658511904</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="57">
@@ -1624,16 +1624,16 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 5 -&gt; 3 -&gt; 4 -&gt; 0</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (4, -4), (6, 18), (4, 12), (0, -12)]</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>67.77708763999664</v>
+        <v>95.57914320590163</v>
       </c>
     </row>
     <row r="58">
@@ -1650,11 +1650,11 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="59">
@@ -1666,16 +1666,16 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 4 -&gt; 5 -&gt; 3 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (4, 12), (4, -4), (0, 20), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>105.275322031192</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="60">
@@ -1687,16 +1687,16 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0 -&gt; 2 -&gt; 3 -&gt; 5 -&gt; 4 -&gt; 5 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 1 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, 12), (0, 20), (4, -4), (4, 12), (4, -4), (0, 20), (4, 12), (4, -4), (-4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>155.8259660935761</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="61">
@@ -1708,16 +1708,16 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 5 -&gt; 1 -&gt; 4 -&gt; 5 -&gt; 3 -&gt; 0</t>
+          <t>0 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 2 -&gt; 3 -&gt; 2 -&gt; 3 -&gt; 1 -&gt; 0</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (4, -4), (-4, -4), (4, 12), (4, -4), (0, 20), (0, -12)]</t>
+          <t>[(0, -12), (6, 18), (4, 12), (4, -4), (-4, 12), (6, 18), (-4, 12), (6, 18), (-4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>141.0524096711887</v>
+        <v>138.9032914481519</v>
       </c>
     </row>
     <row r="62">
@@ -1729,16 +1729,16 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>0 -&gt; 4 -&gt; 5 -&gt; 3 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 1 -&gt; 0</t>
+          <t>0 -&gt; 4 -&gt; 5 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 0</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>[(0, -12), (4, 12), (4, -4), (0, 20), (-4, 12), (0, 20), (4, 12), (-4, -4), (0, -12)]</t>
+          <t>[(0, -12), (4, 12), (4, -4), (-4, -4), (-4, 12), (6, 18), (0, -12)]</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>118.3277317023807</v>
+        <v>106.5870709924402</v>
       </c>
     </row>
     <row r="63">
@@ -1750,16 +1750,16 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>0 -&gt; 5 -&gt; 2 -&gt; 3 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 1 -&gt; 5 -&gt; 0</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>[(0, -12), (4, -4), (-4, 12), (0, 20), (-4, -4), (-4, 12), (0, 20), (4, 12), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (-4, -4), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>118.3277317023807</v>
+        <v>77.76354675002399</v>
       </c>
     </row>
     <row r="64">
@@ -1771,16 +1771,16 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>0 -&gt; 4 -&gt; 5 -&gt; 3 -&gt; 4 -&gt; 2 -&gt; 1 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 5 -&gt; 4 -&gt; 2 -&gt; 3 -&gt; 0</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>[(0, -12), (4, 12), (4, -4), (0, 20), (4, 12), (-4, 12), (-4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (4, -4), (4, 12), (-4, 12), (6, 18), (0, -12)]</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>106.5506440623841</v>
+        <v>83.20029278124647</v>
       </c>
     </row>
     <row r="65">
@@ -1797,11 +1797,11 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="66">
@@ -1818,11 +1818,11 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="67">
@@ -1834,16 +1834,16 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 5 -&gt; 4 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, -4), (4, 12), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>98.55064406238407</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="68">
@@ -1855,16 +1855,16 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 4 -&gt; 5 -&gt; 3 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (4, 12), (4, -4), (0, 20), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>105.275322031192</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="69">
@@ -1876,16 +1876,16 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 5 -&gt; 3 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 0</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (4, -4), (6, 18), (4, 12), (-4, -4), (-4, 12), (0, -12)]</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>67.77708763999664</v>
+        <v>103.5791432059016</v>
       </c>
     </row>
     <row r="70">
@@ -1902,11 +1902,11 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="71">
@@ -1918,16 +1918,16 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 1 -&gt; 2 -&gt; 0</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (6, 18), (4, 12), (4, -4), (-4, -4), (-4, 12), (0, -12)]</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>67.77708763999664</v>
+        <v>101.2497225230863</v>
       </c>
     </row>
     <row r="72">
@@ -1944,11 +1944,11 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="73">
@@ -1960,16 +1960,16 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 4 -&gt; 5 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 1 -&gt; 2 -&gt; 0</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (4, 12), (4, -4), (6, 18), (4, 12), (4, -4), (-4, -4), (-4, 12), (0, -12)]</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>67.77708763999664</v>
+        <v>135.5791432059016</v>
       </c>
     </row>
     <row r="74">
@@ -1986,11 +1986,11 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="75">
@@ -2007,11 +2007,11 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="76">
@@ -2028,11 +2028,11 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="77">
@@ -2049,11 +2049,11 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="78">
@@ -2070,11 +2070,11 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="79">
@@ -2091,11 +2091,11 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="80">
@@ -2107,16 +2107,16 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>0 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 3 -&gt; 5 -&gt; 1 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, 12), (0, 20), (4, 12), (4, -4), (0, 20), (4, -4), (-4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>123.8259660935761</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="81">
@@ -2133,11 +2133,11 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="82">
@@ -2154,11 +2154,11 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="83">
@@ -2175,11 +2175,11 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="84">
@@ -2191,16 +2191,16 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 5 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (4, -4), (-4, 12), (0, 20), (4, 12), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>77.05240967118867</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="85">
@@ -2217,11 +2217,11 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="86">
@@ -2233,16 +2233,16 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 4 -&gt; 5 -&gt; 3 -&gt; 4 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 4 -&gt; 5 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 1 -&gt; 0</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (4, 12), (4, -4), (6, 18), (4, 12), (-4, 12), (6, 18), (4, 12), (4, -4), (6, 18), (4, 12), (4, -4), (4, 12), (4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (-4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>67.77708763999664</v>
+        <v>255.9673387806677</v>
       </c>
     </row>
     <row r="87">
@@ -2259,11 +2259,11 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="88">
@@ -2275,16 +2275,16 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 4 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 1 -&gt; 2 -&gt; 0</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (4, 12), (6, 18), (4, 12), (4, -4), (-4, -4), (-4, 12), (0, -12)]</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>67.77708763999664</v>
+        <v>101.3112108830593</v>
       </c>
     </row>
     <row r="89">
@@ -2296,16 +2296,16 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 1 -&gt; 5 -&gt; 4 -&gt; 0</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (-4, -4), (4, -4), (4, 12), (0, -12)]</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>67.77708763999664</v>
+        <v>109.1033177680718</v>
       </c>
     </row>
     <row r="90">
@@ -2317,16 +2317,16 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>0 -&gt; 5 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 0</t>
+          <t>0 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 1 -&gt; 2 -&gt; 0</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>[(0, -12), (4, -4), (-4, -4), (-4, 12), (0, 20), (4, 12), (0, -12)]</t>
+          <t>[(0, -12), (6, 18), (4, 12), (4, -4), (-4, -4), (-4, 12), (0, -12)]</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>75.16386585119035</v>
+        <v>101.2497225230863</v>
       </c>
     </row>
     <row r="91">
@@ -2343,11 +2343,11 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="92">
@@ -2359,16 +2359,16 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>0 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 4 -&gt; 5 -&gt; 2 -&gt; 5 -&gt; 1 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 5 -&gt; 4 -&gt; 0</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, 12), (0, 20), (4, 12), (4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (4, 12), (4, -4), (-4, 12), (4, -4), (-4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, -4), (4, 12), (0, -12)]</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>194.7180411311836</v>
+        <v>99.02794785525715</v>
       </c>
     </row>
     <row r="93">
@@ -2380,16 +2380,16 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 4 -&gt; 5 -&gt; 3 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 3 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 0</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (4, 12), (4, -4), (0, 20), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (6, 18), (4, 12), (4, -4), (6, 18), (4, 12), (-4, -4), (-4, 12), (0, -12)]</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>105.275322031192</v>
+        <v>142.0697904734275</v>
       </c>
     </row>
     <row r="94">
@@ -2401,16 +2401,16 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 5 -&gt; 3 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 0</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (4, -4), (6, 18), (4, 12), (-4, -4), (-4, 12), (0, -12)]</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>67.77708763999664</v>
+        <v>103.5791432059016</v>
       </c>
     </row>
     <row r="95">
@@ -2427,11 +2427,11 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="96">
@@ -2443,16 +2443,16 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>0 -&gt; 5 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 4 -&gt; 5 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 1 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>[(0, -12), (4, -4), (0, 20), (4, 12), (4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (4, 12), (4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (-4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>210.7180411311836</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="97">
@@ -2464,16 +2464,16 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 5 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 0</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, -4), (-4, 12), (6, 18), (4, 12), (0, -12)]</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>67.77708763999664</v>
+        <v>118.9029507852828</v>
       </c>
     </row>
     <row r="98">
@@ -2485,16 +2485,16 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 5 -&gt; 3 -&gt; 4 -&gt; 2 -&gt; 0</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (4, -4), (6, 18), (4, 12), (-4, 12), (0, -12)]</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>67.77708763999664</v>
+        <v>77.69059938590331</v>
       </c>
     </row>
     <row r="99">
@@ -2506,16 +2506,16 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 4 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 4 -&gt; 5 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 4 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 2 -&gt; 0</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (4, 12), (6, 18), (4, 12), (4, -4), (4, 12), (4, -4), (6, 18), (4, 12), (4, -4), (4, 12), (6, 18), (4, 12), (4, -4), (-4, 12), (0, -12)]</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>67.77708763999664</v>
+        <v>218.765908307247</v>
       </c>
     </row>
     <row r="100">
@@ -2527,16 +2527,16 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 5 -&gt; 3 -&gt; 4 -&gt; 0</t>
+          <t>0 -&gt; 5 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 1 -&gt; 0</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (4, -4), (0, 20), (4, 12), (0, -12)]</t>
+          <t>[(0, -12), (4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (-4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>100.4391878823824</v>
+        <v>77.76354675002399</v>
       </c>
     </row>
     <row r="101">
@@ -2548,16 +2548,16 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 4 -&gt; 5 -&gt; 4 -&gt; 5 -&gt; 2 -&gt; 3 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (4, 12), (4, -4), (4, 12), (4, -4), (-4, 12), (0, 20), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>133.665631459995</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="102">
@@ -2574,11 +2574,11 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="103">
@@ -2595,11 +2595,11 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="104">
@@ -2611,16 +2611,16 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 4 -&gt; 5 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 1 -&gt; 0</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (4, 12), (4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (-4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>67.77708763999664</v>
+        <v>109.1503249612177</v>
       </c>
     </row>
     <row r="105">
@@ -2637,11 +2637,11 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="106">
@@ -2658,11 +2658,11 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="107">
@@ -2679,11 +2679,11 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="108">
@@ -2700,11 +2700,11 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="109">
@@ -2716,16 +2716,16 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>0 -&gt; 5 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 3 -&gt; 1 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>[(0, -12), (4, -4), (-4, 12), (0, 20), (4, 12), (0, 20), (-4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>86.94095349118699</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="110">
@@ -2742,11 +2742,11 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="111">
@@ -2763,11 +2763,11 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="112">
@@ -2779,16 +2779,16 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 5 -&gt; 3 -&gt; 4 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (4, -4), (0, 20), (4, 12), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>100.4391878823824</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="113">
@@ -2800,16 +2800,16 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 5 -&gt; 4 -&gt; 0</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, -4), (4, 12), (0, -12)]</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>67.77708763999664</v>
+        <v>99.02794785525715</v>
       </c>
     </row>
     <row r="114">
@@ -2826,11 +2826,11 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="115">
@@ -2847,11 +2847,11 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="116">
@@ -2863,16 +2863,16 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 4 -&gt; 5 -&gt; 4 -&gt; 3 -&gt; 2 -&gt; 0</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (4, 12), (4, -4), (4, 12), (6, 18), (-4, 12), (0, -12)]</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>67.77708763999664</v>
+        <v>101.1503249612177</v>
       </c>
     </row>
     <row r="117">
@@ -2889,11 +2889,11 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="118">
@@ -2905,16 +2905,16 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 3 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 5 -&gt; 0</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (6, 18), (4, 12), (-4, -4), (-4, 12), (6, 18), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>67.77708763999664</v>
+        <v>113.5041139559561</v>
       </c>
     </row>
     <row r="119">
@@ -2926,16 +2926,16 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 3 -&gt; 4 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 1 -&gt; 0</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (6, 18), (4, 12), (-4, 12), (6, 18), (4, 12), (4, -4), (-4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>67.77708763999664</v>
+        <v>95.84940342191999</v>
       </c>
     </row>
     <row r="120">
@@ -2952,11 +2952,11 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="121">
@@ -2973,11 +2973,11 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="122">
@@ -2989,16 +2989,16 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>0 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 2 -&gt; 3 -&gt; 5 -&gt; 3 -&gt; 5 -&gt; 1 -&gt; 0</t>
+          <t>0 -&gt; 4 -&gt; 5 -&gt; 2 -&gt; 3 -&gt; 1 -&gt; 0</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>[(0, -12), (0, 20), (4, 12), (4, -4), (-4, 12), (0, 20), (4, -4), (0, 20), (4, -4), (-4, -4), (0, -12)]</t>
+          <t>[(0, -12), (4, 12), (4, -4), (-4, 12), (6, 18), (-4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>173.7145099135744</v>
+        <v>102.9918615880701</v>
       </c>
     </row>
     <row r="123">
@@ -3010,16 +3010,16 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>0 -&gt; 3 -&gt; 5 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 3 -&gt; 2 -&gt; 5 -&gt; 1 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 4 -&gt; 5 -&gt; 2 -&gt; 3 -&gt; 0</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>[(0, -12), (0, 20), (4, -4), (0, 20), (4, 12), (4, -4), (0, 20), (-4, 12), (4, -4), (-4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (4, 12), (4, -4), (-4, 12), (6, 18), (0, -12)]</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>173.7145099135744</v>
+        <v>109.0888366012448</v>
       </c>
     </row>
     <row r="124">
@@ -3031,16 +3031,16 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 5 -&gt; 3 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (4, -4), (0, 20), (4, 12), (-4, -4), (-4, 12), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>108.4391878823824</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="125">
@@ -3052,16 +3052,16 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 5 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 0</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, -4), (-4, -4), (-4, 12), (6, 18), (4, 12), (0, -12)]</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>67.77708763999664</v>
+        <v>125.0144069652845</v>
       </c>
     </row>
     <row r="126">
@@ -3078,11 +3078,11 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="127">
@@ -3094,16 +3094,16 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 2 -&gt; 0</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (6, 18), (4, 12), (4, -4), (6, 18), (4, 12), (4, -4), (-4, 12), (0, -12)]</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>67.77708763999664</v>
+        <v>142.0697904734275</v>
       </c>
     </row>
     <row r="128">
@@ -3120,11 +3120,11 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="129">
@@ -3136,16 +3136,16 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 5 -&gt; 4 -&gt; 5 -&gt; 4 -&gt; 5 -&gt; 2 -&gt; 3 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (4, -4), (4, 12), (4, -4), (4, 12), (4, -4), (-4, 12), (0, 20), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>139.7770876399966</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="130">
@@ -3157,16 +3157,16 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 5 -&gt; 4 -&gt; 5 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 2 -&gt; 4 -&gt; 5 -&gt; 1 -&gt; 0</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (4, -4), (4, 12), (4, -4), (6, 18), (4, 12), (4, -4), (-4, 12), (4, 12), (4, -4), (-4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>67.77708763999664</v>
+        <v>144.1923649947079</v>
       </c>
     </row>
     <row r="131">
@@ -3183,11 +3183,11 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="132">
@@ -3204,11 +3204,11 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="133">
@@ -3225,11 +3225,11 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="134">
@@ -3241,16 +3241,16 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 2 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (0, 20), (4, 12), (4, -4), (-4, 12), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>100.4391878823824</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="135">
@@ -3267,11 +3267,11 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="136">
@@ -3283,16 +3283,16 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 5 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, -4), (-4, 12), (0, 20), (4, 12), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>118.3277317023807</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="137">
@@ -3304,16 +3304,16 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 2 -&gt; 5 -&gt; 1 -&gt; 0</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (6, 18), (4, 12), (4, -4), (-4, 12), (4, -4), (-4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>67.77708763999664</v>
+        <v>105.6400319518893</v>
       </c>
     </row>
     <row r="138">
@@ -3330,11 +3330,11 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="139">
@@ -3346,16 +3346,16 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 4 -&gt; 5 -&gt; 1 -&gt; 2 -&gt; 0</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (6, 18), (4, 12), (4, -4), (4, 12), (4, -4), (-4, -4), (-4, 12), (0, -12)]</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>67.77708763999664</v>
+        <v>135.7659692987179</v>
       </c>
     </row>
     <row r="140">
@@ -3367,16 +3367,16 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>0 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 4 -&gt; 5 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 4 -&gt; 5 -&gt; 1 -&gt; 0</t>
+          <t>0 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 1 -&gt; 0</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, 12), (0, 20), (4, 12), (4, -4), (0, 20), (4, 12), (4, -4), (0, 20), (4, 12), (4, -4), (4, 12), (4, -4), (0, 20), (4, 12), (4, -4), (4, 12), (4, -4), (-4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, 12), (6, 18), (4, 12), (4, -4), (-4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>286.9898319447665</v>
+        <v>75.2617811412194</v>
       </c>
     </row>
     <row r="141">
@@ -3388,16 +3388,16 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 5 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (4, -4), (-4, 12), (0, 20), (4, 12), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>77.05240967118867</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="142">
@@ -3409,16 +3409,16 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 2 -&gt; 4 -&gt; 5 -&gt; 1 -&gt; 5 -&gt; 3 -&gt; 0</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, 12), (4, 12), (4, -4), (-4, -4), (4, -4), (6, 18), (0, -12)]</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>67.77708763999664</v>
+        <v>117.0158892371241</v>
       </c>
     </row>
     <row r="143">
@@ -3430,16 +3430,16 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>0 -&gt; 5 -&gt; 4 -&gt; 5 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>[(0, -12), (4, -4), (4, 12), (4, -4), (-4, -4), (-4, 12), (0, 20), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>105.8885438199983</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="144">
@@ -3451,16 +3451,16 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 5 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 0</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (4, -4), (-4, -4), (-4, 12), (6, 18), (4, 12), (0, -12)]</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>67.77708763999664</v>
+        <v>75.26178114121939</v>
       </c>
     </row>
     <row r="145">
@@ -3477,11 +3477,11 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="146">
@@ -3498,11 +3498,11 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="147">
@@ -3514,16 +3514,16 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 5 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 0</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (4, -4), (-4, 12), (6, 18), (4, 12), (0, -12)]</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>67.77708763999664</v>
+        <v>77.15032496121771</v>
       </c>
     </row>
     <row r="148">
@@ -3540,11 +3540,11 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="149">
@@ -3561,11 +3561,11 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="150">
@@ -3582,11 +3582,11 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="151">
@@ -3598,16 +3598,16 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 4 -&gt; 5 -&gt; 3 -&gt; 2 -&gt; 0</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (6, 18), (4, 12), (4, -4), (4, 12), (4, -4), (6, 18), (-4, 12), (0, -12)]</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>67.77708763999664</v>
+        <v>145.5185951227831</v>
       </c>
     </row>
     <row r="152">
@@ -3619,16 +3619,16 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>0 -&gt; 5 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 4 -&gt; 5 -&gt; 2 -&gt; 4 -&gt; 5 -&gt; 3 -&gt; 0</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>[(0, -12), (4, -4), (-4, -4), (-4, 12), (0, 20), (4, 12), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (4, 12), (4, -4), (-4, 12), (4, 12), (4, -4), (6, 18), (0, -12)]</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>75.16386585119035</v>
+        <v>137.406198665927</v>
       </c>
     </row>
     <row r="153">
@@ -3645,11 +3645,11 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="154">
@@ -3666,11 +3666,11 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="155">
@@ -3682,16 +3682,16 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>0 -&gt; 2 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 5 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 0</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, 12), (4, 12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, -4), (-4, 12), (6, 18), (4, 12), (0, -12)]</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>109.0524096711887</v>
+        <v>118.9029507852828</v>
       </c>
     </row>
     <row r="156">
@@ -3703,16 +3703,16 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 5 -&gt; 4 -&gt; 5 -&gt; 3 -&gt; 4 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 1 -&gt; 0</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (4, -4), (4, 12), (4, -4), (6, 18), (4, 12), (6, 18), (4, 12), (4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (-4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>67.77708763999664</v>
+        <v>270.5779406054601</v>
       </c>
     </row>
     <row r="157">
@@ -3729,11 +3729,11 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="158">
@@ -3745,16 +3745,16 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 1 -&gt; 2 -&gt; 0</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (6, 18), (4, 12), (4, -4), (-4, -4), (-4, 12), (0, -12)]</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>67.77708763999664</v>
+        <v>101.2497225230863</v>
       </c>
     </row>
     <row r="159">
@@ -3766,16 +3766,16 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 5 -&gt; 4 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, -4), (4, 12), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>98.55064406238407</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="160">
@@ -3787,16 +3787,16 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 5 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 4 -&gt; 5 -&gt; 4 -&gt; 5 -&gt; 2 -&gt; 0</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (4, -4), (6, 18), (4, 12), (4, -4), (4, 12), (4, -4), (4, 12), (4, -4), (-4, 12), (0, -12)]</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>67.77708763999664</v>
+        <v>167.5791432059016</v>
       </c>
     </row>
     <row r="161">
@@ -3813,11 +3813,11 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="162">
@@ -3829,16 +3829,16 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>0 -&gt; 5 -&gt; 4 -&gt; 5 -&gt; 4 -&gt; 5 -&gt; 3 -&gt; 4 -&gt; 3 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>[(0, -12), (4, -4), (4, 12), (4, -4), (4, 12), (4, -4), (0, 20), (4, 12), (0, 20), (4, 12), (-4, -4), (-4, 12), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>182.3277317023807</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="163">
@@ -3855,11 +3855,11 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="164">
@@ -3871,16 +3871,16 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 4 -&gt; 5 -&gt; 3 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 2 -&gt; 0</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (4, 12), (4, -4), (0, 20), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (6, 18), (4, 12), (4, -4), (-4, 12), (0, -12)]</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>105.275322031192</v>
+        <v>97.65451311871625</v>
       </c>
     </row>
     <row r="165">
@@ -3892,16 +3892,16 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 5 -&gt; 4 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 4 -&gt; 5 -&gt; 3 -&gt; 4 -&gt; 2 -&gt; 0</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, -4), (4, 12), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (4, 12), (4, -4), (6, 18), (4, 12), (-4, 12), (0, -12)]</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>98.55064406238407</v>
+        <v>103.5791432059016</v>
       </c>
     </row>
     <row r="166">
@@ -3918,11 +3918,11 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="167">
@@ -3934,16 +3934,16 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 2 -&gt; 0</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (6, 18), (4, 12), (4, -4), (-4, 12), (0, -12)]</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>67.77708763999664</v>
+        <v>97.65451311871625</v>
       </c>
     </row>
     <row r="168">
@@ -3960,11 +3960,11 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="169">
@@ -3981,11 +3981,11 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="170">
@@ -4002,11 +4002,11 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="171">
@@ -4018,16 +4018,16 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 4 -&gt; 5 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 0</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (4, 12), (4, -4), (-4, -4), (-4, 12), (6, 18), (0, -12)]</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>67.77708763999664</v>
+        <v>106.5870709924402</v>
       </c>
     </row>
     <row r="172">
@@ -4044,11 +4044,11 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="173">
@@ -4060,16 +4060,16 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>0 -&gt; 5 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 4 -&gt; 5 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 2 -&gt; 0</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>[(0, -12), (4, -4), (-4, -4), (-4, 12), (0, 20), (4, 12), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (4, 12), (4, -4), (6, 18), (4, 12), (4, -4), (6, 18), (4, 12), (4, -4), (-4, 12), (0, -12)]</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>75.16386585119035</v>
+        <v>173.8829643806112</v>
       </c>
     </row>
     <row r="174">
@@ -4081,16 +4081,16 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 5 -&gt; 4 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, -4), (4, 12), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>98.55064406238407</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="175">
@@ -4107,11 +4107,11 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="176">
@@ -4128,11 +4128,11 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="177">
@@ -4149,11 +4149,11 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="178">
@@ -4170,11 +4170,11 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="179">
@@ -4186,16 +4186,16 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 5 -&gt; 1 -&gt; 5 -&gt; 4 -&gt; 5 -&gt; 2 -&gt; 3 -&gt; 0</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (4, -4), (-4, -4), (4, -4), (4, 12), (4, -4), (-4, 12), (6, 18), (0, -12)]</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>67.77708763999664</v>
+        <v>150.9773804212431</v>
       </c>
     </row>
     <row r="180">
@@ -4212,11 +4212,11 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="181">
@@ -4233,11 +4233,11 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="182">
@@ -4249,16 +4249,16 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>0 -&gt; 5 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 2 -&gt; 1 -&gt; 0</t>
+          <t>0 -&gt; 5 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 0</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>[(0, -12), (4, -4), (0, 20), (4, 12), (4, -4), (-4, 12), (-4, -4), (0, -12)]</t>
+          <t>[(0, -12), (4, -4), (-4, -4), (-4, 12), (6, 18), (4, 12), (0, -12)]</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>101.0524096711887</v>
+        <v>75.26178114121939</v>
       </c>
     </row>
     <row r="183">
@@ -4275,11 +4275,11 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="184">
@@ -4291,16 +4291,16 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 5 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 0</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, -4), (-4, 12), (6, 18), (4, 12), (0, -12)]</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>67.77708763999664</v>
+        <v>118.9029507852828</v>
       </c>
     </row>
     <row r="185">
@@ -4317,11 +4317,11 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="186">
@@ -4333,16 +4333,16 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>0 -&gt; 4 -&gt; 5 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 0</t>
+          <t>0 -&gt; 4 -&gt; 5 -&gt; 3 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 0</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>[(0, -12), (4, 12), (4, -4), (-4, -4), (-4, 12), (0, 20), (0, -12)]</t>
+          <t>[(0, -12), (4, 12), (4, -4), (6, 18), (4, 12), (-4, -4), (-4, 12), (0, -12)]</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>105.275322031192</v>
+        <v>126.9659214170953</v>
       </c>
     </row>
     <row r="187">
@@ -4354,16 +4354,16 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 5 -&gt; 4 -&gt; 5 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 0</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (4, -4), (4, 12), (4, -4), (-4, -4), (-4, 12), (6, 18), (0, -12)]</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>67.77708763999664</v>
+        <v>107.2002927812465</v>
       </c>
     </row>
     <row r="188">
@@ -4375,16 +4375,16 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 3 -&gt; 2 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (0, 20), (4, 12), (4, -4), (0, 20), (-4, 12), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>115.8259660935761</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="189">
@@ -4396,16 +4396,16 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 5 -&gt; 4 -&gt; 5 -&gt; 2 -&gt; 3 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (4, -4), (4, 12), (4, -4), (-4, 12), (0, 20), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>107.7770876399966</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="190">
@@ -4417,16 +4417,16 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 4 -&gt; 5 -&gt; 4 -&gt; 5 -&gt; 2 -&gt; 3 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (4, 12), (4, -4), (4, 12), (4, -4), (-4, 12), (0, 20), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>139.7770876399966</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="191">
@@ -4443,11 +4443,11 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="192">
@@ -4459,16 +4459,16 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 5 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 5 -&gt; 4 -&gt; 5 -&gt; 3 -&gt; 0</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (4, -4), (-4, 12), (0, 20), (4, 12), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (4, -4), (4, 12), (4, -4), (6, 18), (0, -12)]</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>77.05240967118867</v>
+        <v>127.5176548459287</v>
       </c>
     </row>
     <row r="193">
@@ -4480,16 +4480,16 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>99.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="194">
@@ -4501,16 +4501,16 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 4 -&gt; 5 -&gt; 4 -&gt; 2 -&gt; 3 -&gt; 0</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (4, 12), (4, -4), (4, 12), (-4, 12), (6, 18), (0, -12)]</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>67.77708763999664</v>
+        <v>109.0888366012448</v>
       </c>
     </row>
     <row r="195">
@@ -4522,16 +4522,16 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 5 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 2 -&gt; 4 -&gt; 5 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 1 -&gt; 0</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (4, -4), (6, 18), (4, 12), (4, -4), (-4, 12), (4, 12), (4, -4), (6, 18), (4, 12), (4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (-4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>67.77708763999664</v>
+        <v>208.4826452794449</v>
       </c>
     </row>
     <row r="196">
@@ -4548,11 +4548,11 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="197">
@@ -4564,16 +4564,16 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 4 -&gt; 5 -&gt; 3 -&gt; 2 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (0, 20), (4, 12), (4, -4), (4, 12), (4, -4), (0, 20), (-4, 12), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>147.8259660935761</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="198">
@@ -4585,16 +4585,16 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 5 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 1 -&gt; 0</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (6, 18), (4, 12), (4, -4), (-4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>67.77708763999664</v>
+        <v>122.1788241047353</v>
       </c>
     </row>
     <row r="199">
@@ -4606,16 +4606,16 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>0 -&gt; 4 -&gt; 5 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 4 -&gt; 5 -&gt; 1 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 5 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 0</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>[(0, -12), (4, 12), (4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (4, 12), (4, -4), (-4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, -4), (-4, -4), (-4, 12), (6, 18), (4, 12), (0, -12)]</t>
         </is>
       </c>
       <c r="E199" t="n">
-        <v>141.0524096711887</v>
+        <v>125.0144069652845</v>
       </c>
     </row>
     <row r="200">
@@ -4627,16 +4627,16 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 1 -&gt; 0</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, 12), (6, 18), (4, 12), (4, -4), (6, 18), (4, 12), (4, -4), (6, 18), (4, 12), (4, -4), (-4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>67.77708763999664</v>
+        <v>164.092335850642</v>
       </c>
     </row>
     <row r="201">
@@ -4648,16 +4648,16 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>0 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 1 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 5 -&gt; 4 -&gt; 5 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 0</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, 12), (0, 20), (4, 12), (4, -4), (-4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (4, -4), (4, 12), (4, -4), (-4, -4), (-4, 12), (6, 18), (0, -12)]</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>75.16386585119035</v>
+        <v>141.0888366012448</v>
       </c>
     </row>
     <row r="202">
@@ -4674,11 +4674,11 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E202" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="203">
@@ -4695,11 +4695,11 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E203" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="204">
@@ -4716,11 +4716,11 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="205">
@@ -4737,11 +4737,11 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E205" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="206">
@@ -4758,11 +4758,11 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E206" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="207">
@@ -4774,16 +4774,16 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E207" t="n">
-        <v>67.77708763999664</v>
+        <v>119.7500058600513</v>
       </c>
     </row>
     <row r="208">
@@ -4795,16 +4795,16 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
+          <t>0 -&gt; 2 -&gt; 3 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, 12), (6, 18), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E208" t="n">
-        <v>67.77708763999664</v>
+        <v>119.0897768780991</v>
       </c>
     </row>
     <row r="209">
@@ -4816,16 +4816,16 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>0 -&gt; 5 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 1 -&gt; 2 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>[(0, -12), (4, -4), (0, 20), (4, 12), (4, -4), (-4, -4), (-4, 12), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E209" t="n">
-        <v>106.5506440623841</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="210">
@@ -4842,11 +4842,11 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>[(0, -12), (-4, -4), (-4, 12), (0, 20), (4, 12), (4, -4), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E210" t="n">
-        <v>67.77708763999664</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
     <row r="211">
@@ -4858,16 +4858,16 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>0 -&gt; 4 -&gt; 5 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 0</t>
+          <t>0 -&gt; 1 -&gt; 2 -&gt; 3 -&gt; 4 -&gt; 5 -&gt; 0</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>[(0, -12), (4, 12), (4, -4), (-4, -4), (-4, 12), (0, 20), (0, -12)]</t>
+          <t>[(0, -12), (-4, -4), (-4, 12), (6, 18), (4, 12), (4, -4), (0, -12)]</t>
         </is>
       </c>
       <c r="E211" t="n">
-        <v>105.275322031192</v>
+        <v>67.87500293002567</v>
       </c>
     </row>
   </sheetData>
